--- a/biology/Biologie cellulaire et moléculaire/XPO1/XPO1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/XPO1/XPO1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'XPO1 (pour exportine 1), appelé aussi CRM1 (pour « chromosomal region maintenance 1 ») est une protéine agissant dans le transport nucléo-cytoplasmique. Son gène, XPO1, est situé le chromosome 2 humain.
 </t>
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une exportine permettant le transfert de certaines protéines ou molécules à travers la membrane nucléaire.
 </t>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette protéine est exprimée par plusieurs tumeurs, dont le lymphome du manteau[5] ou le myélome multiple[6], constituant une cible thérapeutique. Elle contribue à la résistance du myélome à un traitement par du bortézomib[7].
-Plusieurs molécules inhibant le XPO1 sont en cours d'étude[8]. Le sélinexor est l'une d'entre elles, utilisé dans le traitement de certains myélomes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette protéine est exprimée par plusieurs tumeurs, dont le lymphome du manteau ou le myélome multiple, constituant une cible thérapeutique. Elle contribue à la résistance du myélome à un traitement par du bortézomib.
+Plusieurs molécules inhibant le XPO1 sont en cours d'étude. Le sélinexor est l'une d'entre elles, utilisé dans le traitement de certains myélomes.
 </t>
         </is>
       </c>
